--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelaleman/Desktop/face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8452F8-4618-3544-A713-1557C6607353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46C6EE-7806-9C47-8617-FA42C4A900D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="500" windowWidth="28040" windowHeight="14500" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>nControl</t>
   </si>
@@ -267,16 +267,36 @@
   </si>
   <si>
     <t>Jatniel Alejandro Pena Vizcarra</t>
+  </si>
+  <si>
+    <t>Alma Victoria Cuen Armenta</t>
+  </si>
+  <si>
+    <t>Brayan Alexis Amarillas Aviles</t>
+  </si>
+  <si>
+    <t>l21170298@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>l21170236@culiacan.tecnm.mx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,13 +319,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1237,13 +1260,47 @@
       <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D35" t="s">
         <v>45</v>
       </c>
       <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>21170298</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>21170236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1251,6 +1308,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="B2:B32"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{EB7733CE-63BF-7346-9EAA-8EB39C20C339}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{B7755757-3556-2547-81AE-75E70A9AB35A}"/>
+    <hyperlink ref="C35" r:id="rId3" xr:uid="{22672B69-C9F0-BB4C-AC6A-0D2AADC7ADAF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelaleman/Desktop/face_recognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF46C6EE-7806-9C47-8617-FA42C4A900D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA22CC9-A431-4B2D-960E-815D5EAB150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="500" windowWidth="28040" windowHeight="14500" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
   <si>
     <t>nControl</t>
   </si>
@@ -71,18 +69,30 @@
     <t>Diego Alejandro De La Rocha Linarez</t>
   </si>
   <si>
+    <t>Manjarrez Rodelo Omar</t>
+  </si>
+  <si>
     <t>Brayan Mendoza Garcia</t>
   </si>
   <si>
     <t>Luis Xavier Acosta Chang</t>
   </si>
   <si>
+    <t>Roberto Carlos Saucedo Rodríguez</t>
+  </si>
+  <si>
     <t>Carlos Eduardo Padilla Pimentel</t>
   </si>
   <si>
+    <t>Alexis Guillén Ruiz</t>
+  </si>
+  <si>
     <t>Astrid Monserrat Echegarray Aceves</t>
   </si>
   <si>
+    <t>Portillo López Emma Daniela</t>
+  </si>
+  <si>
     <t>Luis Enrique Ojeda Lopez</t>
   </si>
   <si>
@@ -182,12 +192,18 @@
     <t>Sistemas Computacionales</t>
   </si>
   <si>
+    <t>Jatniel Alejandro Peña Vizcarra</t>
+  </si>
+  <si>
     <t>l21170432@culiacan.tecnm.mx</t>
   </si>
   <si>
     <t>Cesar Enrique Vazquez Cardenas</t>
   </si>
   <si>
+    <t>Angel Cardenas Quiñonez</t>
+  </si>
+  <si>
     <t>Cinthia Guadalupe Pinedo Garcia</t>
   </si>
   <si>
@@ -209,6 +225,9 @@
     <t>Sebastian Verdugo Bermudez</t>
   </si>
   <si>
+    <t>Sergio Jesus García Sanchez</t>
+  </si>
+  <si>
     <t>Ciencias Basicas</t>
   </si>
   <si>
@@ -248,55 +267,314 @@
     <t>l21170252@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Emma Daniela Portillo Lopez</t>
-  </si>
-  <si>
-    <t>Omar Manjarrez Rodelo</t>
-  </si>
-  <si>
-    <t>Angel Cardenas Quinonez</t>
-  </si>
-  <si>
-    <t>Alexis Guillen Ruiz</t>
-  </si>
-  <si>
-    <t>Sergio Jesus Garcia Sanchez</t>
-  </si>
-  <si>
-    <t>Roberto Carlos Saucedo Rodriguez</t>
-  </si>
-  <si>
-    <t>Jatniel Alejandro Pena Vizcarra</t>
-  </si>
-  <si>
-    <t>Alma Victoria Cuen Armenta</t>
-  </si>
-  <si>
-    <t>Brayan Alexis Amarillas Aviles</t>
-  </si>
-  <si>
-    <t>l21170298@culiacan.tecnm.mx</t>
-  </si>
-  <si>
-    <t>l21170236@culiacan.tecnm.mx</t>
+    <t>Javier Uribe Armenta</t>
+  </si>
+  <si>
+    <t>l21170497@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Jesus Omar Dominguez Lopez</t>
+  </si>
+  <si>
+    <t>l23170214@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Yael Aram Lugo Ojeda</t>
+  </si>
+  <si>
+    <t>l23170137@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>l23170115@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Juan Diego Carrillo Heredia</t>
+  </si>
+  <si>
+    <t>C17170977</t>
+  </si>
+  <si>
+    <t>Gabriel Roberto Pastor Varela</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Juan Carlos Terraza</t>
+  </si>
+  <si>
+    <t>l24170747@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Paul Eduardo Coronel Carrillo</t>
+  </si>
+  <si>
+    <t>l21170550@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Luis Antonio Peñuelas Lopez</t>
+  </si>
+  <si>
+    <t>l21170433@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Jesus Daniel Picos Gomzalez</t>
+  </si>
+  <si>
+    <t>l23170279@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Adrian Chavez Espinoza</t>
+  </si>
+  <si>
+    <t>l24270519@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Julio Esteban Beltran Cardenas</t>
+  </si>
+  <si>
+    <t>l24170488@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Erick David Rodriguez Meza</t>
+  </si>
+  <si>
+    <t>l24170713@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Alan Elihu Yanes Ayala</t>
+  </si>
+  <si>
+    <t>l23170907@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Daniel Eduardo Valdez Espinoza</t>
+  </si>
+  <si>
+    <t>l24170758@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Kevin Edgar Mexia Leon</t>
+  </si>
+  <si>
+    <t>l22170723@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Habram Alexander Cervantes Ojeda</t>
+  </si>
+  <si>
+    <t>l24171226@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Jose Yair Muñoz Ochoa</t>
+  </si>
+  <si>
+    <t>l21170694@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Luis Alan Trapero Martinez</t>
+  </si>
+  <si>
+    <t>l21171174@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Leonel Esteban Garcia Figueroa</t>
+  </si>
+  <si>
+    <t>l23170044@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Tics</t>
+  </si>
+  <si>
+    <t>Eduar Yair Aguirre Ceballos</t>
+  </si>
+  <si>
+    <t>l23170037@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Edlin Jaqueline Cruz Camargo</t>
+  </si>
+  <si>
+    <t>l23170042@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Jesus Alejandro Quintero Castro</t>
+  </si>
+  <si>
+    <t>l23170054@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Vanessa Guadalupe Hernandez Ramos</t>
+  </si>
+  <si>
+    <t>l23170050@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Misael Ruiz Elizalde</t>
+  </si>
+  <si>
+    <t>l23170055@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Meza Escobar Cesar Eduardo</t>
+  </si>
+  <si>
+    <t>l22170724@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Johan Abel Camacho Medina</t>
+  </si>
+  <si>
+    <t>l20170618@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Josue Natanael Rojo Payan</t>
+  </si>
+  <si>
+    <t>l24170717@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Victor Hugo Santiso Medin</t>
+  </si>
+  <si>
+    <t>l24170737@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Jesus Cristian Niebla Garcia</t>
+  </si>
+  <si>
+    <t>l24170653@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Angela Imelda Millan Lopez</t>
+  </si>
+  <si>
+    <t>l24170638@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Maria del Rosario Gonzalez Alvarez</t>
+  </si>
+  <si>
+    <t>dato sistemas</t>
+  </si>
+  <si>
+    <t>l21170431@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Miguel Angel Peña Lopez</t>
+  </si>
+  <si>
+    <t>Jaqueline Robles Rios</t>
+  </si>
+  <si>
+    <t>l21170454@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Daniel Alejandro Mendez Diarte</t>
+  </si>
+  <si>
+    <t>l22170722@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Luis Fernando Campos Lopez</t>
+  </si>
+  <si>
+    <t>l22170593@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Adriel Gonzalez Magallanes</t>
+  </si>
+  <si>
+    <t>l24170577@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Juan Axel Torres Ramos</t>
+  </si>
+  <si>
+    <t>l24170750@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Frida Maria Mendoza del Rio</t>
+  </si>
+  <si>
+    <t>l24170627@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Cesar Imanol Elenes Terrazas</t>
+  </si>
+  <si>
+    <t>l22170634@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Kevin Jasiel Samano Machado</t>
+  </si>
+  <si>
+    <t>l22170815@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Javier Enrique Perez Sosa</t>
+  </si>
+  <si>
+    <t>l22170771@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Sebastian Bejarano Ureta</t>
+  </si>
+  <si>
+    <t>l22170574@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Jesus Ricardo Valerio Rodriguez</t>
+  </si>
+  <si>
+    <t>l21170464@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Jesus Antonio Bringas Alvarado</t>
+  </si>
+  <si>
+    <t>l21170264@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CristopherTrapero Orona </t>
+  </si>
+  <si>
+    <t>l21170494@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Juan Eduardo Garcia Noriz</t>
+  </si>
+  <si>
+    <t>l21170335@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Fernando David Loza Moreno</t>
+  </si>
+  <si>
+    <t>l21170381@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Luis Daniel Botello Lopez</t>
+  </si>
+  <si>
+    <t>l23170020@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Rosalio Zatarain Cabada</t>
+  </si>
+  <si>
+    <t>Martha Estela Valenzuela Tirado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,16 +597,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -345,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -661,21 +938,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,211 +969,211 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>21170348</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>21170273</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>21170305</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>21170398</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>21170421</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>21170259</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>20170855</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>21170502</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>21170291</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>21170434</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>21170432</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>21170235</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>21170302</v>
       </c>
@@ -904,16 +1181,16 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>21170344</v>
       </c>
@@ -921,16 +1198,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>21170491</v>
       </c>
@@ -938,101 +1215,101 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>21170361</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>21170517</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>21170263</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>21170282</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>21170458</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>22170571</v>
       </c>
@@ -1040,118 +1317,115 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>21170409</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>21170229</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>21170387</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>21170000</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>21170435</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>21170481</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>21170329</v>
       </c>
@@ -1159,50 +1433,50 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>21170512</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>21170338</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>22170720</v>
       </c>
@@ -1210,109 +1484,908 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>21170276</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>21170262</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>21170252</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
-        <v>21170298</v>
+        <v>21170497</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
-        <v>21170236</v>
+        <v>23170214</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>23170137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>23170115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>24170747</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>21170550</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>21170433</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>23170279</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>24270519</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>24170488</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>24170713</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>23170907</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>24170758</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>22170723</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>24171226</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>21170694</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>21171174</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>23170044</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>23170037</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>23170042</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>23170054</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>23170050</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>23170055</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>22170724</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>20170618</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>24170717</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>24170737</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>24170653</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>24170638</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>8988</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>21170431</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>21170454</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>22170722</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>22170593</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>24170577</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>24170750</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>24170627</v>
+      </c>
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>22170634</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>22170815</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>22170771</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>22170574</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>21170464</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>21170264</v>
+      </c>
+      <c r="B79" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>21170494</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>21170335</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>21170381</v>
+      </c>
+      <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>23170020</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <v>602</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>1389</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="B2:B32"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{EB7733CE-63BF-7346-9EAA-8EB39C20C339}"/>
-    <hyperlink ref="C37" r:id="rId2" xr:uid="{B7755757-3556-2547-81AE-75E70A9AB35A}"/>
-    <hyperlink ref="C35" r:id="rId3" xr:uid="{22672B69-C9F0-BB4C-AC6A-0D2AADC7ADAF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosBeltran/Documents/TEC/Octavo Semestre/Taller de investigacion II/itc_face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA22CC9-A431-4B2D-960E-815D5EAB150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DAFD91-7397-634B-AA12-871E999B5BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32460" windowHeight="20940" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="180">
   <si>
     <t>nControl</t>
   </si>
@@ -565,13 +565,22 @@
   </si>
   <si>
     <t>Martha Estela Valenzuela Tirado</t>
+  </si>
+  <si>
+    <t>rosalio.zc@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>martha.vt@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>maria.ga@culiacan.tecnm.mx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -600,9 +609,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -940,19 +948,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>21170348</v>
       </c>
@@ -986,7 +994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21170273</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21170305</v>
       </c>
@@ -1020,7 +1028,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>21170398</v>
       </c>
@@ -1037,7 +1045,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21170421</v>
       </c>
@@ -1054,14 +1062,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21170259</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>70</v>
       </c>
       <c r="D7" t="s">
@@ -1071,7 +1079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20170855</v>
       </c>
@@ -1088,14 +1096,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>21170502</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>69</v>
       </c>
       <c r="D9" t="s">
@@ -1105,7 +1113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21170291</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21170434</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21170432</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>21170235</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21170302</v>
       </c>
@@ -1190,7 +1198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21170344</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>21170491</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>21170361</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21170517</v>
       </c>
@@ -1258,14 +1266,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>21170263</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
       <c r="D19" t="s">
@@ -1275,7 +1283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21170282</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21170458</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22170571</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21170409</v>
       </c>
@@ -1343,7 +1351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21170229</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21170387</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21170435</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>21170481</v>
       </c>
@@ -1425,7 +1433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21170329</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>21170512</v>
       </c>
@@ -1459,7 +1467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>21170338</v>
       </c>
@@ -1476,7 +1484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>22170720</v>
       </c>
@@ -1493,14 +1501,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>21170276</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>71</v>
       </c>
       <c r="D33" t="s">
@@ -1510,14 +1518,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>21170262</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>74</v>
       </c>
       <c r="D34" t="s">
@@ -1527,14 +1535,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>21170252</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>76</v>
       </c>
       <c r="D35" t="s">
@@ -1544,14 +1552,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>21170497</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>78</v>
       </c>
       <c r="D36" t="s">
@@ -1561,14 +1569,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>23170214</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
@@ -1578,14 +1586,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>23170137</v>
       </c>
       <c r="B38" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>82</v>
       </c>
       <c r="D38" t="s">
@@ -1595,14 +1603,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>23170115</v>
       </c>
       <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>83</v>
       </c>
       <c r="D39" t="s">
@@ -1612,7 +1620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1626,14 +1634,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>24170747</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>89</v>
       </c>
       <c r="D41" t="s">
@@ -1643,14 +1651,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>21170550</v>
       </c>
       <c r="B42" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>91</v>
       </c>
       <c r="D42" t="s">
@@ -1660,14 +1668,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>21170433</v>
       </c>
       <c r="B43" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>93</v>
       </c>
       <c r="D43" t="s">
@@ -1677,14 +1685,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>23170279</v>
       </c>
       <c r="B44" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>95</v>
       </c>
       <c r="D44" t="s">
@@ -1694,14 +1702,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>24270519</v>
       </c>
       <c r="B45" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>97</v>
       </c>
       <c r="D45" t="s">
@@ -1711,14 +1719,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>24170488</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>99</v>
       </c>
       <c r="D46" t="s">
@@ -1728,14 +1736,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>24170713</v>
       </c>
       <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>101</v>
       </c>
       <c r="D47" t="s">
@@ -1745,14 +1753,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>23170907</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>103</v>
       </c>
       <c r="D48" t="s">
@@ -1762,14 +1770,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24170758</v>
       </c>
       <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>105</v>
       </c>
       <c r="D49" t="s">
@@ -1779,14 +1787,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>22170723</v>
       </c>
       <c r="B50" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>107</v>
       </c>
       <c r="D50" t="s">
@@ -1796,14 +1804,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>24171226</v>
       </c>
       <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>109</v>
       </c>
       <c r="D51" t="s">
@@ -1813,14 +1821,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>21170694</v>
       </c>
       <c r="B52" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>111</v>
       </c>
       <c r="D52" t="s">
@@ -1830,14 +1838,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>21171174</v>
       </c>
       <c r="B53" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>113</v>
       </c>
       <c r="D53" t="s">
@@ -1847,14 +1855,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>23170044</v>
       </c>
       <c r="B54" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>115</v>
       </c>
       <c r="D54" t="s">
@@ -1864,14 +1872,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>23170037</v>
       </c>
       <c r="B55" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>118</v>
       </c>
       <c r="D55" t="s">
@@ -1881,14 +1889,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>23170042</v>
       </c>
       <c r="B56" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>120</v>
       </c>
       <c r="D56" t="s">
@@ -1898,14 +1906,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>23170054</v>
       </c>
       <c r="B57" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>122</v>
       </c>
       <c r="D57" t="s">
@@ -1915,14 +1923,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>23170050</v>
       </c>
       <c r="B58" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>124</v>
       </c>
       <c r="D58" t="s">
@@ -1932,14 +1940,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>23170055</v>
       </c>
       <c r="B59" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>126</v>
       </c>
       <c r="D59" t="s">
@@ -1949,14 +1957,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>22170724</v>
       </c>
       <c r="B60" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>128</v>
       </c>
       <c r="D60" t="s">
@@ -1966,14 +1974,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20170618</v>
       </c>
       <c r="B61" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>130</v>
       </c>
       <c r="D61" t="s">
@@ -1983,14 +1991,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>24170717</v>
       </c>
       <c r="B62" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>132</v>
       </c>
       <c r="D62" t="s">
@@ -2000,14 +2008,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>24170737</v>
       </c>
       <c r="B63" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>134</v>
       </c>
       <c r="D63" t="s">
@@ -2017,14 +2025,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>24170653</v>
       </c>
       <c r="B64" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>136</v>
       </c>
       <c r="D64" t="s">
@@ -2034,14 +2042,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>24170638</v>
       </c>
       <c r="B65" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>138</v>
       </c>
       <c r="D65" t="s">
@@ -2051,13 +2059,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>8988</v>
       </c>
       <c r="B66" t="s">
         <v>139</v>
       </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
       <c r="D66" t="s">
         <v>50</v>
       </c>
@@ -2065,14 +2076,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>21170431</v>
       </c>
       <c r="B67" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>141</v>
       </c>
       <c r="D67" t="s">
@@ -2082,14 +2093,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>21170454</v>
       </c>
       <c r="B68" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>144</v>
       </c>
       <c r="D68" t="s">
@@ -2099,14 +2110,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>22170722</v>
       </c>
       <c r="B69" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>146</v>
       </c>
       <c r="D69" t="s">
@@ -2116,14 +2127,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>22170593</v>
       </c>
       <c r="B70" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>148</v>
       </c>
       <c r="D70" t="s">
@@ -2133,14 +2144,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>24170577</v>
       </c>
       <c r="B71" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>150</v>
       </c>
       <c r="D71" t="s">
@@ -2150,14 +2161,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>24170750</v>
       </c>
       <c r="B72" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>152</v>
       </c>
       <c r="D72" t="s">
@@ -2167,14 +2178,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>24170627</v>
       </c>
       <c r="B73" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>154</v>
       </c>
       <c r="D73" t="s">
@@ -2184,14 +2195,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>22170634</v>
       </c>
       <c r="B74" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>156</v>
       </c>
       <c r="D74" t="s">
@@ -2201,14 +2212,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>22170815</v>
       </c>
       <c r="B75" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>158</v>
       </c>
       <c r="D75" t="s">
@@ -2218,14 +2229,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>22170771</v>
       </c>
       <c r="B76" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>160</v>
       </c>
       <c r="D76" t="s">
@@ -2235,14 +2246,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>22170574</v>
       </c>
       <c r="B77" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>162</v>
       </c>
       <c r="D77" t="s">
@@ -2252,14 +2263,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>21170464</v>
       </c>
       <c r="B78" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>164</v>
       </c>
       <c r="D78" t="s">
@@ -2269,14 +2280,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>21170264</v>
       </c>
       <c r="B79" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>166</v>
       </c>
       <c r="D79" t="s">
@@ -2286,14 +2297,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>21170494</v>
       </c>
       <c r="B80" t="s">
         <v>167</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>168</v>
       </c>
       <c r="D80" t="s">
@@ -2303,14 +2314,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>21170335</v>
       </c>
       <c r="B81" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>170</v>
       </c>
       <c r="D81" t="s">
@@ -2320,14 +2331,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>21170381</v>
       </c>
       <c r="B82" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>172</v>
       </c>
       <c r="D82" t="s">
@@ -2337,14 +2348,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>23170020</v>
       </c>
       <c r="B83" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>174</v>
       </c>
       <c r="D83" t="s">
@@ -2354,13 +2365,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>602</v>
       </c>
       <c r="B84" t="s">
         <v>175</v>
       </c>
+      <c r="C84" t="s">
+        <v>177</v>
+      </c>
       <c r="D84" t="s">
         <v>50</v>
       </c>
@@ -2368,12 +2382,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1389</v>
       </c>
       <c r="B85" t="s">
         <v>176</v>
+      </c>
+      <c r="C85" t="s">
+        <v>178</v>
       </c>
       <c r="D85" t="s">
         <v>50</v>

--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosBeltran/Documents/TEC/Octavo Semestre/Taller de investigacion II/itc_face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DAFD91-7397-634B-AA12-871E999B5BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7278296-B971-A540-B8AF-0A9E7A74712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32460" windowHeight="20940" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="178">
   <si>
     <t>nControl</t>
   </si>
@@ -69,30 +69,18 @@
     <t>Diego Alejandro De La Rocha Linarez</t>
   </si>
   <si>
-    <t>Manjarrez Rodelo Omar</t>
-  </si>
-  <si>
     <t>Brayan Mendoza Garcia</t>
   </si>
   <si>
     <t>Luis Xavier Acosta Chang</t>
   </si>
   <si>
-    <t>Roberto Carlos Saucedo Rodríguez</t>
-  </si>
-  <si>
     <t>Carlos Eduardo Padilla Pimentel</t>
   </si>
   <si>
-    <t>Alexis Guillén Ruiz</t>
-  </si>
-  <si>
     <t>Astrid Monserrat Echegarray Aceves</t>
   </si>
   <si>
-    <t>Portillo López Emma Daniela</t>
-  </si>
-  <si>
     <t>Luis Enrique Ojeda Lopez</t>
   </si>
   <si>
@@ -189,21 +177,12 @@
     <t>profesor</t>
   </si>
   <si>
-    <t>Sistemas Computacionales</t>
-  </si>
-  <si>
-    <t>Jatniel Alejandro Peña Vizcarra</t>
-  </si>
-  <si>
     <t>l21170432@culiacan.tecnm.mx</t>
   </si>
   <si>
     <t>Cesar Enrique Vazquez Cardenas</t>
   </si>
   <si>
-    <t>Angel Cardenas Quiñonez</t>
-  </si>
-  <si>
     <t>Cinthia Guadalupe Pinedo Garcia</t>
   </si>
   <si>
@@ -225,9 +204,6 @@
     <t>Sebastian Verdugo Bermudez</t>
   </si>
   <si>
-    <t>Sergio Jesus García Sanchez</t>
-  </si>
-  <si>
     <t>Ciencias Basicas</t>
   </si>
   <si>
@@ -297,9 +273,6 @@
     <t>Gabriel Roberto Pastor Varela</t>
   </si>
   <si>
-    <t>Industrial</t>
-  </si>
-  <si>
     <t>Juan Carlos Terraza</t>
   </si>
   <si>
@@ -312,15 +285,9 @@
     <t>l21170550@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Luis Antonio Peñuelas Lopez</t>
-  </si>
-  <si>
     <t>l21170433@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Jesus Daniel Picos Gomzalez</t>
-  </si>
-  <si>
     <t>l23170279@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -348,12 +315,6 @@
     <t>l23170907@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Daniel Eduardo Valdez Espinoza</t>
-  </si>
-  <si>
-    <t>l24170758@culiacan.tecnm.mx</t>
-  </si>
-  <si>
     <t>Kevin Edgar Mexia Leon</t>
   </si>
   <si>
@@ -366,9 +327,6 @@
     <t>l24171226@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Jose Yair Muñoz Ochoa</t>
-  </si>
-  <si>
     <t>l21170694@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -384,9 +342,6 @@
     <t>l23170044@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Tics</t>
-  </si>
-  <si>
     <t>Eduar Yair Aguirre Ceballos</t>
   </si>
   <si>
@@ -417,9 +372,6 @@
     <t>l23170055@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Meza Escobar Cesar Eduardo</t>
-  </si>
-  <si>
     <t>l22170724@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -456,15 +408,9 @@
     <t>Maria del Rosario Gonzalez Alvarez</t>
   </si>
   <si>
-    <t>dato sistemas</t>
-  </si>
-  <si>
     <t>l21170431@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Miguel Angel Peña Lopez</t>
-  </si>
-  <si>
     <t>Jaqueline Robles Rios</t>
   </si>
   <si>
@@ -525,9 +471,6 @@
     <t>l22170574@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t>Jesus Ricardo Valerio Rodriguez</t>
-  </si>
-  <si>
     <t>l21170464@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -537,9 +480,6 @@
     <t>l21170264@culiacan.tecnm.mx</t>
   </si>
   <si>
-    <t xml:space="preserve">CristopherTrapero Orona </t>
-  </si>
-  <si>
     <t>l21170494@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -574,16 +514,78 @@
   </si>
   <si>
     <t>maria.ga@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Alexis Guillen Ruiz</t>
+  </si>
+  <si>
+    <t>Roberto Carlos Saucedo Rodriguez</t>
+  </si>
+  <si>
+    <t>Sergio Jesus Garcia Sanchez</t>
+  </si>
+  <si>
+    <t>l17170977@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Ingenieria en Sistemas Computacionales</t>
+  </si>
+  <si>
+    <t>Ingenieria en TIC</t>
+  </si>
+  <si>
+    <t>Ingenieria Industrial</t>
+  </si>
+  <si>
+    <t>Angel Cardenas Quinonez</t>
+  </si>
+  <si>
+    <t>Jatniel Alejandro Pena Vizcarra</t>
+  </si>
+  <si>
+    <t>Luis Antonio Penuelas Lopez</t>
+  </si>
+  <si>
+    <t>Jose Yair Munoz Ochoa</t>
+  </si>
+  <si>
+    <t>Miguel Angel Pena Lopez</t>
+  </si>
+  <si>
+    <t>Omar Manjarrez Rodelo</t>
+  </si>
+  <si>
+    <t>Emma Daniela Portillo Lopez</t>
+  </si>
+  <si>
+    <t>Jesus Daniel Picos Gonzalez</t>
+  </si>
+  <si>
+    <t>Cesar Eduardo Meza Escobar</t>
+  </si>
+  <si>
+    <t>Jesus Ricardo Rodriguez Valerio</t>
+  </si>
+  <si>
+    <t>Cristopher Trapero Orona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -606,14 +608,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -946,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,16 +987,16 @@
         <v>21170348</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -999,16 +1004,16 @@
         <v>21170273</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1016,16 +1021,16 @@
         <v>21170305</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1033,16 +1038,16 @@
         <v>21170398</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1050,16 +1055,16 @@
         <v>21170421</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,16 +1072,16 @@
         <v>21170259</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1084,16 +1089,16 @@
         <v>20170855</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1101,16 +1106,16 @@
         <v>21170502</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1118,16 +1123,16 @@
         <v>21170291</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1135,16 +1140,16 @@
         <v>21170434</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1152,16 +1157,16 @@
         <v>21170432</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1169,16 +1174,16 @@
         <v>21170235</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1189,13 +1194,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,13 +1228,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1237,16 +1242,16 @@
         <v>21170361</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1254,16 +1259,16 @@
         <v>21170517</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,16 +1276,16 @@
         <v>21170263</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1288,16 +1293,16 @@
         <v>21170282</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1305,16 +1310,16 @@
         <v>21170458</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,13 +1330,13 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,16 +1344,16 @@
         <v>21170409</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1356,16 +1361,16 @@
         <v>21170229</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1373,30 +1378,33 @@
         <v>21170387</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1234</v>
+      </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1404,16 +1412,16 @@
         <v>21170435</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1421,16 +1429,16 @@
         <v>21170481</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1441,13 +1449,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1455,16 +1463,16 @@
         <v>21170512</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1472,16 +1480,16 @@
         <v>21170338</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1492,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1506,16 +1514,16 @@
         <v>21170276</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1523,16 +1531,16 @@
         <v>21170262</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1540,16 +1548,16 @@
         <v>21170252</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1557,16 +1565,16 @@
         <v>21170497</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1574,16 +1582,16 @@
         <v>23170214</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1591,16 +1599,16 @@
         <v>23170137</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1608,30 +1616,33 @@
         <v>23170115</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1639,16 +1650,16 @@
         <v>24170747</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1656,16 +1667,16 @@
         <v>21170550</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1673,16 +1684,16 @@
         <v>21170433</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1690,16 +1701,16 @@
         <v>23170279</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1707,16 +1718,16 @@
         <v>24270519</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1724,16 +1735,16 @@
         <v>24170488</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1741,16 +1752,16 @@
         <v>24170713</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1758,651 +1769,637 @@
         <v>23170907</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>24170758</v>
+        <v>22170723</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>22170723</v>
+        <v>24171226</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>24171226</v>
+        <v>21170694</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>21170694</v>
+        <v>21171174</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>21171174</v>
+        <v>23170044</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>23170044</v>
+        <v>23170037</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>23170037</v>
+        <v>23170042</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>23170042</v>
+        <v>23170054</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>23170054</v>
+        <v>23170050</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>23170050</v>
+        <v>23170055</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>23170055</v>
+        <v>22170724</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>22170724</v>
+        <v>20170618</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>20170618</v>
+        <v>24170717</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>24170717</v>
+        <v>24170737</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>24170737</v>
+        <v>24170653</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>24170653</v>
+        <v>24170638</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>24170638</v>
+        <v>8988</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>8988</v>
+        <v>21170431</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>21170431</v>
+        <v>21170454</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>21170454</v>
+        <v>22170722</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>22170722</v>
+        <v>22170593</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>22170593</v>
+        <v>24170577</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>24170577</v>
+        <v>24170750</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>24170750</v>
+        <v>24170627</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>24170627</v>
+        <v>22170634</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>22170634</v>
+        <v>22170815</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>22170815</v>
+        <v>22170771</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>22170771</v>
+        <v>22170574</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>22170574</v>
+        <v>21170464</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>21170464</v>
+        <v>21170264</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>21170264</v>
+        <v>21170494</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>21170494</v>
+        <v>21170335</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>21170335</v>
+        <v>21170381</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>21170381</v>
+        <v>23170020</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>23170020</v>
+      <c r="A83" s="1">
+        <v>602</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>602</v>
+      <c r="A84">
+        <v>1389</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>1389</v>
-      </c>
-      <c r="B85" t="s">
-        <v>176</v>
-      </c>
-      <c r="C85" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="B2:B32"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C40" r:id="rId1" xr:uid="{89560EFF-9C67-EF40-A59E-AC1314EAEE59}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosBeltran/Documents/TEC/Octavo Semestre/Taller de investigacion II/itc_face_recognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelaleman/Desktop/face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7278296-B971-A540-B8AF-0A9E7A74712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF827E-3B70-1D4A-9DF0-E855CB7AABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32460" windowHeight="20940" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15060" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="182">
   <si>
     <t>nControl</t>
   </si>
@@ -568,6 +568,18 @@
   </si>
   <si>
     <t>Cristopher Trapero Orona</t>
+  </si>
+  <si>
+    <t>Alma Victoria Cuen Armenta</t>
+  </si>
+  <si>
+    <t>l21170298@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Brayan Alexis Amarillas Aviles</t>
+  </si>
+  <si>
+    <t>l21170236@culiacan.tecnm.mx</t>
   </si>
 </sst>
 </file>
@@ -951,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2393,12 +2405,48 @@
         <v>56</v>
       </c>
     </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>21170298</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>21170236</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="B2:B32"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C40" r:id="rId1" xr:uid="{89560EFF-9C67-EF40-A59E-AC1314EAEE59}"/>
+    <hyperlink ref="C85" r:id="rId2" xr:uid="{DBA1C05D-CE4D-B84F-84CF-C62EC3F79F9D}"/>
+    <hyperlink ref="C86" r:id="rId3" xr:uid="{61542A5C-EDD3-6A48-9A2D-6C5B31CBAF54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelaleman/Desktop/face_recognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosBeltran/Documents/TEC/Octavo Semestre/Taller de investigacion II/itc_face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF827E-3B70-1D4A-9DF0-E855CB7AABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC0269D-1503-0143-8D2F-CC76DD6F086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15060" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="469">
   <si>
     <t>nControl</t>
   </si>
@@ -580,6 +580,867 @@
   </si>
   <si>
     <t>l21170236@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170199</t>
+  </si>
+  <si>
+    <t>Fatima Velazquez Hernandez</t>
+  </si>
+  <si>
+    <t>l21170199@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Ingenieria en Energias Renovables</t>
+  </si>
+  <si>
+    <t>20170424</t>
+  </si>
+  <si>
+    <t>Jesus Alfredo Gamiz Aguirre</t>
+  </si>
+  <si>
+    <t>l20170424@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Ingenieria Mecatronica</t>
+  </si>
+  <si>
+    <t>21171198</t>
+  </si>
+  <si>
+    <t>Gabriel Alexis Zura Beltran</t>
+  </si>
+  <si>
+    <t>l21171198@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170188</t>
+  </si>
+  <si>
+    <t>Jafet David Gonzales Torres</t>
+  </si>
+  <si>
+    <t>l21170188@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>22170161</t>
+  </si>
+  <si>
+    <t>Ernesto Alejandro Flores Ruiz</t>
+  </si>
+  <si>
+    <t>l22170161@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>20170557</t>
+  </si>
+  <si>
+    <t>Kevin Valenzuela Lopez</t>
+  </si>
+  <si>
+    <t>l20170557@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170674</t>
+  </si>
+  <si>
+    <t>Jezabel Adonay Parea Lopez</t>
+  </si>
+  <si>
+    <t>l24170674@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170664</t>
+  </si>
+  <si>
+    <t>Emmanuel Olais Morales</t>
+  </si>
+  <si>
+    <t>l24170664@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>18170645</t>
+  </si>
+  <si>
+    <t>Saul Gandarilla Armenta</t>
+  </si>
+  <si>
+    <t>l18170645@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170944</t>
+  </si>
+  <si>
+    <t>Sebastian Ocampo Felix</t>
+  </si>
+  <si>
+    <t>l24170944@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>19170470</t>
+  </si>
+  <si>
+    <t>Jesus Tadeo Ramirez Vazquez</t>
+  </si>
+  <si>
+    <t>l19170470@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170236</t>
+  </si>
+  <si>
+    <t>Carlos Miguel Sanchez Delgado</t>
+  </si>
+  <si>
+    <t>l24170236@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170784</t>
+  </si>
+  <si>
+    <t>Jesus Emmanuel Zavala Pulido</t>
+  </si>
+  <si>
+    <t>l24170784@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170720</t>
+  </si>
+  <si>
+    <t>Fermin Torres Martinez</t>
+  </si>
+  <si>
+    <t>l21170720@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Ingenieria Mecanica</t>
+  </si>
+  <si>
+    <t>23170407</t>
+  </si>
+  <si>
+    <t>Rene Beltran Cardenaz</t>
+  </si>
+  <si>
+    <t>l23170407@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170921</t>
+  </si>
+  <si>
+    <t>Juan Pablo Chaparro Verdugo</t>
+  </si>
+  <si>
+    <t>l21170921@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>22170166</t>
+  </si>
+  <si>
+    <t>Jose Wilfredo Rivas Lopez</t>
+  </si>
+  <si>
+    <t>l22170166@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170256</t>
+  </si>
+  <si>
+    <t>Angel Gabriel Muñoz Vega</t>
+  </si>
+  <si>
+    <t>l23170256@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170194</t>
+  </si>
+  <si>
+    <t>Sol Abril Rubio Ramirez</t>
+  </si>
+  <si>
+    <t>l21170194@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170073</t>
+  </si>
+  <si>
+    <t>Emiliano Ignacio Arellanes Beltran</t>
+  </si>
+  <si>
+    <t>l23170073@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23171024</t>
+  </si>
+  <si>
+    <t>Alejandro Rivera Camacho</t>
+  </si>
+  <si>
+    <t>l23171024@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170213</t>
+  </si>
+  <si>
+    <t>Jared Leyva</t>
+  </si>
+  <si>
+    <t>l21170213@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170253</t>
+  </si>
+  <si>
+    <t>Jaime Alexander Morales Carrillo</t>
+  </si>
+  <si>
+    <t>l23170253@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170882</t>
+  </si>
+  <si>
+    <t>Kendra Julemy Galviz Pacheco</t>
+  </si>
+  <si>
+    <t>l24170882@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24171087</t>
+  </si>
+  <si>
+    <t>Jesus Angel Castañeda Melendrez</t>
+  </si>
+  <si>
+    <t>l24171087@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Ingenieria Electrica</t>
+  </si>
+  <si>
+    <t>24170227</t>
+  </si>
+  <si>
+    <t>Luis Guillermo Machado Gonzales</t>
+  </si>
+  <si>
+    <t>l24170227@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>22171132</t>
+  </si>
+  <si>
+    <t>Alondra Yarim Sanchez Olmeda</t>
+  </si>
+  <si>
+    <t>l22171132@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>20170018</t>
+  </si>
+  <si>
+    <t>Alexander Morales Rodriguez</t>
+  </si>
+  <si>
+    <t>l20170018@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170879</t>
+  </si>
+  <si>
+    <t>Jose Alonso Barrancas Gaxiola</t>
+  </si>
+  <si>
+    <t>l21170879@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170452</t>
+  </si>
+  <si>
+    <t>Francisco de Jesus Duran Zavala</t>
+  </si>
+  <si>
+    <t>l23170452@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170533</t>
+  </si>
+  <si>
+    <t>Rocca Emiliano Escobar Della</t>
+  </si>
+  <si>
+    <t>l24170533@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170626</t>
+  </si>
+  <si>
+    <t>Carlos Santiago Salazar Angulo</t>
+  </si>
+  <si>
+    <t>l21170626@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170101</t>
+  </si>
+  <si>
+    <t>Osvaldo Alvarez Catalan</t>
+  </si>
+  <si>
+    <t>l21170101@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170231</t>
+  </si>
+  <si>
+    <t>Jose Alejandro Nuñez Ortiz</t>
+  </si>
+  <si>
+    <t>l24170231@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170821</t>
+  </si>
+  <si>
+    <t>Dulce Maria Sanaella Rodriguez</t>
+  </si>
+  <si>
+    <t>l23170821@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>20171454</t>
+  </si>
+  <si>
+    <t>Beanyel Valle Torres</t>
+  </si>
+  <si>
+    <t>l20171454@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21171241</t>
+  </si>
+  <si>
+    <t>Jesus Nedel Inzunza Rivera</t>
+  </si>
+  <si>
+    <t>l21171241@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170641</t>
+  </si>
+  <si>
+    <t>Diego Horacio Valverde Lopez</t>
+  </si>
+  <si>
+    <t>l21170641@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170216</t>
+  </si>
+  <si>
+    <t>Jorge Alejandro Nuñez Serrano</t>
+  </si>
+  <si>
+    <t>l21170216@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21171072</t>
+  </si>
+  <si>
+    <t>Bryan Zaid Navarrete Diaz</t>
+  </si>
+  <si>
+    <t>l21171072@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>22170520</t>
+  </si>
+  <si>
+    <t>Bryan de Jesus Sianz Carrillo</t>
+  </si>
+  <si>
+    <t>l22170520@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>20170469</t>
+  </si>
+  <si>
+    <t>Juan Diego Lozoya Moreno</t>
+  </si>
+  <si>
+    <t>l20170469@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24171010</t>
+  </si>
+  <si>
+    <t>Carlos Miguel Segura Obeso</t>
+  </si>
+  <si>
+    <t>l24171010@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>C2317002</t>
+  </si>
+  <si>
+    <t>Jose Octavio Inzunza Romero</t>
+  </si>
+  <si>
+    <t>lC2317002@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170188</t>
+  </si>
+  <si>
+    <t>Luis Cuitlahuac Samanl Aguirre</t>
+  </si>
+  <si>
+    <t>l24170188@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170474</t>
+  </si>
+  <si>
+    <t>Jose Antonio Sanchez Arevalo</t>
+  </si>
+  <si>
+    <t>l21170474@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>22170170</t>
+  </si>
+  <si>
+    <t>Arturo Silvas Garcia</t>
+  </si>
+  <si>
+    <t>l22170170@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170094</t>
+  </si>
+  <si>
+    <t>Juan Angel Valenzuela Garcia</t>
+  </si>
+  <si>
+    <t>l24170094@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170428</t>
+  </si>
+  <si>
+    <t>Angel Ntanael Castro Ocaña</t>
+  </si>
+  <si>
+    <t>l23170428@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170722</t>
+  </si>
+  <si>
+    <t>Rosas Lopez Josua Orlando</t>
+  </si>
+  <si>
+    <t>l24170722@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170339</t>
+  </si>
+  <si>
+    <t>Daniel Eduardo Castro Molina</t>
+  </si>
+  <si>
+    <t>l24170339@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170208</t>
+  </si>
+  <si>
+    <t>Cristina Soliz</t>
+  </si>
+  <si>
+    <t>l21170208@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170605</t>
+  </si>
+  <si>
+    <t>Angel Johncarlo Lopez Gallegos</t>
+  </si>
+  <si>
+    <t>l24170605@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23171022</t>
+  </si>
+  <si>
+    <t>Emiliano Figueroa Quintero</t>
+  </si>
+  <si>
+    <t>l23171022@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170088</t>
+  </si>
+  <si>
+    <t>Rogelio Rojo Moreno</t>
+  </si>
+  <si>
+    <t>l24170088@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170938</t>
+  </si>
+  <si>
+    <t>Pedro Arturo Espino Diaz</t>
+  </si>
+  <si>
+    <t>l21170938@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170232</t>
+  </si>
+  <si>
+    <t>Jesus Manuel Nuñez Zavala</t>
+  </si>
+  <si>
+    <t>l24170232@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21171274</t>
+  </si>
+  <si>
+    <t>Saul Alexis Espinoza Sandoval</t>
+  </si>
+  <si>
+    <t>l21171274@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170520</t>
+  </si>
+  <si>
+    <t>Luis Feranando Acosta Hernadez</t>
+  </si>
+  <si>
+    <t>l21170520@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170973</t>
+  </si>
+  <si>
+    <t>Jose Gilberto Gastelum Garcia</t>
+  </si>
+  <si>
+    <t>l21170973@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170680</t>
+  </si>
+  <si>
+    <t>Ramon Hernandez Velazquez</t>
+  </si>
+  <si>
+    <t>l21170680@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170730</t>
+  </si>
+  <si>
+    <t>Juan Diego Zatarain Raygoza</t>
+  </si>
+  <si>
+    <t>l21170730@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170133</t>
+  </si>
+  <si>
+    <t>German Nicolas De la Vega Corvera</t>
+  </si>
+  <si>
+    <t>l23170133@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170142</t>
+  </si>
+  <si>
+    <t>Jesus Isaac Ramirez Espinoza</t>
+  </si>
+  <si>
+    <t>l21170142@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>22170446</t>
+  </si>
+  <si>
+    <t>Cinthya Jarina Guerra Quintero</t>
+  </si>
+  <si>
+    <t>l22170446@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170246</t>
+  </si>
+  <si>
+    <t>Darlin Berenice Molina Beltran</t>
+  </si>
+  <si>
+    <t>l23170246@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170484</t>
+  </si>
+  <si>
+    <t>Tadeo Hernandez Millan</t>
+  </si>
+  <si>
+    <t>l23170484@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24171011</t>
+  </si>
+  <si>
+    <t>Blanca Estefany Serrano Rojo</t>
+  </si>
+  <si>
+    <t>l24171011@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21177093</t>
+  </si>
+  <si>
+    <t>Fernando Chiquete Velazquez</t>
+  </si>
+  <si>
+    <t>l21177093@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>22170171</t>
+  </si>
+  <si>
+    <t>Lenin Isau Vega Acosya</t>
+  </si>
+  <si>
+    <t>l22170171@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170596</t>
+  </si>
+  <si>
+    <t>Alfredo Leon Sanchez</t>
+  </si>
+  <si>
+    <t>l24170596@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>19170514</t>
+  </si>
+  <si>
+    <t>Hector Verdugo Velazquez</t>
+  </si>
+  <si>
+    <t>l19170514@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24171135</t>
+  </si>
+  <si>
+    <t>Jesus Fidel Salazar Meza</t>
+  </si>
+  <si>
+    <t>l24171135@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170120</t>
+  </si>
+  <si>
+    <t>Brandon Gael Alvarado Covarrubias</t>
+  </si>
+  <si>
+    <t>l24170120@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>20170460</t>
+  </si>
+  <si>
+    <t>Jesus Regino Leyva Vazquez</t>
+  </si>
+  <si>
+    <t>l20170460@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170536</t>
+  </si>
+  <si>
+    <t>Jose Omar Beltran Villegas</t>
+  </si>
+  <si>
+    <t>l21170536@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24171047</t>
+  </si>
+  <si>
+    <t>David Sebastian Vega Aguirre</t>
+  </si>
+  <si>
+    <t>l24171047@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170251</t>
+  </si>
+  <si>
+    <t>Abdiel Neftali Mora Ibarra</t>
+  </si>
+  <si>
+    <t>l23170251@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170027</t>
+  </si>
+  <si>
+    <t>Shecid Itzel Corona Gonzales</t>
+  </si>
+  <si>
+    <t>l21170027@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Ingenieria Ambiental</t>
+  </si>
+  <si>
+    <t>22170631</t>
+  </si>
+  <si>
+    <t>Rogelio Diaz</t>
+  </si>
+  <si>
+    <t>l22170631@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170477</t>
+  </si>
+  <si>
+    <t>Sebastian Armenta Ruelas</t>
+  </si>
+  <si>
+    <t>l24170477@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170969</t>
+  </si>
+  <si>
+    <t>Daniela Garcia Patiño</t>
+  </si>
+  <si>
+    <t>l21170969@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>22170553</t>
+  </si>
+  <si>
+    <t>Sebastian Alcantar</t>
+  </si>
+  <si>
+    <t>l22170553@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170947</t>
+  </si>
+  <si>
+    <t>Alma Delia Felix Bojorquez</t>
+  </si>
+  <si>
+    <t>l21170947@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24171222</t>
+  </si>
+  <si>
+    <t>Itzel Valeria Diaz Villegas</t>
+  </si>
+  <si>
+    <t>l24171222@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>20170683</t>
+  </si>
+  <si>
+    <t>Paulo Andre Gonzales Valdvinos</t>
+  </si>
+  <si>
+    <t>l20170683@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170126</t>
+  </si>
+  <si>
+    <t>Rogelio Jimenez Tapia</t>
+  </si>
+  <si>
+    <t>l21170126@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>21170129</t>
+  </si>
+  <si>
+    <t>Erick Gael Lopez Montes</t>
+  </si>
+  <si>
+    <t>l21170129@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170789</t>
+  </si>
+  <si>
+    <t>Stefano Medina Perez</t>
+  </si>
+  <si>
+    <t>l23170789@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24171332</t>
+  </si>
+  <si>
+    <t>Alejandro Mohamed Medina Beltran</t>
+  </si>
+  <si>
+    <t>l24171332@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23170209</t>
+  </si>
+  <si>
+    <t>Ale Lomeli Nungaray</t>
+  </si>
+  <si>
+    <t>l23170209@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>23171026</t>
+  </si>
+  <si>
+    <t>Omar Eduardo Valdez</t>
+  </si>
+  <si>
+    <t>l23171026@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24171021</t>
+  </si>
+  <si>
+    <t>Daniel Valdez Salazar</t>
+  </si>
+  <si>
+    <t>l24171021@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>24170223</t>
+  </si>
+  <si>
+    <t>Cesar Javier Hernandez Armenta</t>
+  </si>
+  <si>
+    <t>l24170223@culiacan.tecnm.mx</t>
   </si>
 </sst>
 </file>
@@ -963,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2439,6 +3300,1604 @@
         <v>164</v>
       </c>
     </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>208</v>
+      </c>
+      <c r="B95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" t="s">
+        <v>229</v>
+      </c>
+      <c r="D101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" t="s">
+        <v>232</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" t="s">
+        <v>45</v>
+      </c>
+      <c r="E105" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>245</v>
+      </c>
+      <c r="B107" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" t="s">
+        <v>247</v>
+      </c>
+      <c r="D107" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" t="s">
+        <v>250</v>
+      </c>
+      <c r="D108" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>251</v>
+      </c>
+      <c r="B109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" t="s">
+        <v>253</v>
+      </c>
+      <c r="D109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>254</v>
+      </c>
+      <c r="B110" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>264</v>
+      </c>
+      <c r="B113" t="s">
+        <v>265</v>
+      </c>
+      <c r="C113" t="s">
+        <v>266</v>
+      </c>
+      <c r="D113" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>267</v>
+      </c>
+      <c r="B114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" t="s">
+        <v>269</v>
+      </c>
+      <c r="D114" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>270</v>
+      </c>
+      <c r="B115" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" t="s">
+        <v>272</v>
+      </c>
+      <c r="D115" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" t="s">
+        <v>278</v>
+      </c>
+      <c r="D117" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>279</v>
+      </c>
+      <c r="B118" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" t="s">
+        <v>281</v>
+      </c>
+      <c r="D118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>282</v>
+      </c>
+      <c r="B119" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" t="s">
+        <v>284</v>
+      </c>
+      <c r="D119" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" t="s">
+        <v>286</v>
+      </c>
+      <c r="C120" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>288</v>
+      </c>
+      <c r="B121" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" t="s">
+        <v>290</v>
+      </c>
+      <c r="D121" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>291</v>
+      </c>
+      <c r="B122" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" t="s">
+        <v>293</v>
+      </c>
+      <c r="D122" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>294</v>
+      </c>
+      <c r="B123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123" t="s">
+        <v>296</v>
+      </c>
+      <c r="D123" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>300</v>
+      </c>
+      <c r="B125" t="s">
+        <v>301</v>
+      </c>
+      <c r="C125" t="s">
+        <v>302</v>
+      </c>
+      <c r="D125" t="s">
+        <v>45</v>
+      </c>
+      <c r="E125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>303</v>
+      </c>
+      <c r="B126" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" t="s">
+        <v>305</v>
+      </c>
+      <c r="D126" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" t="s">
+        <v>307</v>
+      </c>
+      <c r="C127" t="s">
+        <v>308</v>
+      </c>
+      <c r="D127" t="s">
+        <v>45</v>
+      </c>
+      <c r="E127" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" t="s">
+        <v>45</v>
+      </c>
+      <c r="E128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>312</v>
+      </c>
+      <c r="B129" t="s">
+        <v>313</v>
+      </c>
+      <c r="C129" t="s">
+        <v>314</v>
+      </c>
+      <c r="D129" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>315</v>
+      </c>
+      <c r="B130" t="s">
+        <v>316</v>
+      </c>
+      <c r="C130" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" t="s">
+        <v>45</v>
+      </c>
+      <c r="E130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>318</v>
+      </c>
+      <c r="B131" t="s">
+        <v>319</v>
+      </c>
+      <c r="C131" t="s">
+        <v>320</v>
+      </c>
+      <c r="D131" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>321</v>
+      </c>
+      <c r="B132" t="s">
+        <v>322</v>
+      </c>
+      <c r="C132" t="s">
+        <v>323</v>
+      </c>
+      <c r="D132" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>324</v>
+      </c>
+      <c r="B133" t="s">
+        <v>325</v>
+      </c>
+      <c r="C133" t="s">
+        <v>326</v>
+      </c>
+      <c r="D133" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" t="s">
+        <v>329</v>
+      </c>
+      <c r="D134" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>330</v>
+      </c>
+      <c r="B135" t="s">
+        <v>331</v>
+      </c>
+      <c r="C135" t="s">
+        <v>332</v>
+      </c>
+      <c r="D135" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>333</v>
+      </c>
+      <c r="B136" t="s">
+        <v>334</v>
+      </c>
+      <c r="C136" t="s">
+        <v>335</v>
+      </c>
+      <c r="D136" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>336</v>
+      </c>
+      <c r="B137" t="s">
+        <v>337</v>
+      </c>
+      <c r="C137" t="s">
+        <v>338</v>
+      </c>
+      <c r="D137" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>339</v>
+      </c>
+      <c r="B138" t="s">
+        <v>340</v>
+      </c>
+      <c r="C138" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138" t="s">
+        <v>45</v>
+      </c>
+      <c r="E138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>342</v>
+      </c>
+      <c r="B139" t="s">
+        <v>343</v>
+      </c>
+      <c r="C139" t="s">
+        <v>344</v>
+      </c>
+      <c r="D139" t="s">
+        <v>45</v>
+      </c>
+      <c r="E139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>345</v>
+      </c>
+      <c r="B140" t="s">
+        <v>346</v>
+      </c>
+      <c r="C140" t="s">
+        <v>347</v>
+      </c>
+      <c r="D140" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>348</v>
+      </c>
+      <c r="B141" t="s">
+        <v>349</v>
+      </c>
+      <c r="C141" t="s">
+        <v>350</v>
+      </c>
+      <c r="D141" t="s">
+        <v>45</v>
+      </c>
+      <c r="E141" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" t="s">
+        <v>352</v>
+      </c>
+      <c r="C142" t="s">
+        <v>353</v>
+      </c>
+      <c r="D142" t="s">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>354</v>
+      </c>
+      <c r="B143" t="s">
+        <v>355</v>
+      </c>
+      <c r="C143" t="s">
+        <v>356</v>
+      </c>
+      <c r="D143" t="s">
+        <v>45</v>
+      </c>
+      <c r="E143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>357</v>
+      </c>
+      <c r="B144" t="s">
+        <v>358</v>
+      </c>
+      <c r="C144" t="s">
+        <v>359</v>
+      </c>
+      <c r="D144" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>360</v>
+      </c>
+      <c r="B145" t="s">
+        <v>361</v>
+      </c>
+      <c r="C145" t="s">
+        <v>362</v>
+      </c>
+      <c r="D145" t="s">
+        <v>45</v>
+      </c>
+      <c r="E145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>363</v>
+      </c>
+      <c r="B146" t="s">
+        <v>364</v>
+      </c>
+      <c r="C146" t="s">
+        <v>365</v>
+      </c>
+      <c r="D146" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>366</v>
+      </c>
+      <c r="B147" t="s">
+        <v>367</v>
+      </c>
+      <c r="C147" t="s">
+        <v>368</v>
+      </c>
+      <c r="D147" t="s">
+        <v>45</v>
+      </c>
+      <c r="E147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>369</v>
+      </c>
+      <c r="B148" t="s">
+        <v>370</v>
+      </c>
+      <c r="C148" t="s">
+        <v>371</v>
+      </c>
+      <c r="D148" t="s">
+        <v>45</v>
+      </c>
+      <c r="E148" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>372</v>
+      </c>
+      <c r="B149" t="s">
+        <v>373</v>
+      </c>
+      <c r="C149" t="s">
+        <v>374</v>
+      </c>
+      <c r="D149" t="s">
+        <v>45</v>
+      </c>
+      <c r="E149" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>375</v>
+      </c>
+      <c r="B150" t="s">
+        <v>376</v>
+      </c>
+      <c r="C150" t="s">
+        <v>377</v>
+      </c>
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>378</v>
+      </c>
+      <c r="B151" t="s">
+        <v>379</v>
+      </c>
+      <c r="C151" t="s">
+        <v>380</v>
+      </c>
+      <c r="D151" t="s">
+        <v>45</v>
+      </c>
+      <c r="E151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>381</v>
+      </c>
+      <c r="B152" t="s">
+        <v>382</v>
+      </c>
+      <c r="C152" t="s">
+        <v>383</v>
+      </c>
+      <c r="D152" t="s">
+        <v>45</v>
+      </c>
+      <c r="E152" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>384</v>
+      </c>
+      <c r="B153" t="s">
+        <v>385</v>
+      </c>
+      <c r="C153" t="s">
+        <v>386</v>
+      </c>
+      <c r="D153" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>387</v>
+      </c>
+      <c r="B154" t="s">
+        <v>388</v>
+      </c>
+      <c r="C154" t="s">
+        <v>389</v>
+      </c>
+      <c r="D154" t="s">
+        <v>45</v>
+      </c>
+      <c r="E154" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>390</v>
+      </c>
+      <c r="B155" t="s">
+        <v>391</v>
+      </c>
+      <c r="C155" t="s">
+        <v>392</v>
+      </c>
+      <c r="D155" t="s">
+        <v>45</v>
+      </c>
+      <c r="E155" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>393</v>
+      </c>
+      <c r="B156" t="s">
+        <v>394</v>
+      </c>
+      <c r="C156" t="s">
+        <v>395</v>
+      </c>
+      <c r="D156" t="s">
+        <v>45</v>
+      </c>
+      <c r="E156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>396</v>
+      </c>
+      <c r="B157" t="s">
+        <v>397</v>
+      </c>
+      <c r="C157" t="s">
+        <v>398</v>
+      </c>
+      <c r="D157" t="s">
+        <v>45</v>
+      </c>
+      <c r="E157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>399</v>
+      </c>
+      <c r="B158" t="s">
+        <v>400</v>
+      </c>
+      <c r="C158" t="s">
+        <v>401</v>
+      </c>
+      <c r="D158" t="s">
+        <v>45</v>
+      </c>
+      <c r="E158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>402</v>
+      </c>
+      <c r="B159" t="s">
+        <v>403</v>
+      </c>
+      <c r="C159" t="s">
+        <v>404</v>
+      </c>
+      <c r="D159" t="s">
+        <v>45</v>
+      </c>
+      <c r="E159" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>405</v>
+      </c>
+      <c r="B160" t="s">
+        <v>406</v>
+      </c>
+      <c r="C160" t="s">
+        <v>407</v>
+      </c>
+      <c r="D160" t="s">
+        <v>45</v>
+      </c>
+      <c r="E160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>408</v>
+      </c>
+      <c r="B161" t="s">
+        <v>409</v>
+      </c>
+      <c r="C161" t="s">
+        <v>410</v>
+      </c>
+      <c r="D161" t="s">
+        <v>45</v>
+      </c>
+      <c r="E161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>411</v>
+      </c>
+      <c r="B162" t="s">
+        <v>412</v>
+      </c>
+      <c r="C162" t="s">
+        <v>413</v>
+      </c>
+      <c r="D162" t="s">
+        <v>45</v>
+      </c>
+      <c r="E162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>414</v>
+      </c>
+      <c r="B163" t="s">
+        <v>415</v>
+      </c>
+      <c r="C163" t="s">
+        <v>416</v>
+      </c>
+      <c r="D163" t="s">
+        <v>45</v>
+      </c>
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>417</v>
+      </c>
+      <c r="B164" t="s">
+        <v>418</v>
+      </c>
+      <c r="C164" t="s">
+        <v>419</v>
+      </c>
+      <c r="D164" t="s">
+        <v>45</v>
+      </c>
+      <c r="E164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>420</v>
+      </c>
+      <c r="B165" t="s">
+        <v>421</v>
+      </c>
+      <c r="C165" t="s">
+        <v>422</v>
+      </c>
+      <c r="D165" t="s">
+        <v>45</v>
+      </c>
+      <c r="E165" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>424</v>
+      </c>
+      <c r="B166" t="s">
+        <v>425</v>
+      </c>
+      <c r="C166" t="s">
+        <v>426</v>
+      </c>
+      <c r="D166" t="s">
+        <v>45</v>
+      </c>
+      <c r="E166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>427</v>
+      </c>
+      <c r="B167" t="s">
+        <v>428</v>
+      </c>
+      <c r="C167" t="s">
+        <v>429</v>
+      </c>
+      <c r="D167" t="s">
+        <v>45</v>
+      </c>
+      <c r="E167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>430</v>
+      </c>
+      <c r="B168" t="s">
+        <v>431</v>
+      </c>
+      <c r="C168" t="s">
+        <v>432</v>
+      </c>
+      <c r="D168" t="s">
+        <v>45</v>
+      </c>
+      <c r="E168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>433</v>
+      </c>
+      <c r="B169" t="s">
+        <v>434</v>
+      </c>
+      <c r="C169" t="s">
+        <v>435</v>
+      </c>
+      <c r="D169" t="s">
+        <v>45</v>
+      </c>
+      <c r="E169" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>436</v>
+      </c>
+      <c r="B170" t="s">
+        <v>437</v>
+      </c>
+      <c r="C170" t="s">
+        <v>438</v>
+      </c>
+      <c r="D170" t="s">
+        <v>45</v>
+      </c>
+      <c r="E170" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>439</v>
+      </c>
+      <c r="B171" t="s">
+        <v>440</v>
+      </c>
+      <c r="C171" t="s">
+        <v>441</v>
+      </c>
+      <c r="D171" t="s">
+        <v>45</v>
+      </c>
+      <c r="E171" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>442</v>
+      </c>
+      <c r="B172" t="s">
+        <v>443</v>
+      </c>
+      <c r="C172" t="s">
+        <v>444</v>
+      </c>
+      <c r="D172" t="s">
+        <v>45</v>
+      </c>
+      <c r="E172" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>445</v>
+      </c>
+      <c r="B173" t="s">
+        <v>446</v>
+      </c>
+      <c r="C173" t="s">
+        <v>447</v>
+      </c>
+      <c r="D173" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>448</v>
+      </c>
+      <c r="B174" t="s">
+        <v>449</v>
+      </c>
+      <c r="C174" t="s">
+        <v>450</v>
+      </c>
+      <c r="D174" t="s">
+        <v>45</v>
+      </c>
+      <c r="E174" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>451</v>
+      </c>
+      <c r="B175" t="s">
+        <v>452</v>
+      </c>
+      <c r="C175" t="s">
+        <v>453</v>
+      </c>
+      <c r="D175" t="s">
+        <v>45</v>
+      </c>
+      <c r="E175" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>454</v>
+      </c>
+      <c r="B176" t="s">
+        <v>455</v>
+      </c>
+      <c r="C176" t="s">
+        <v>456</v>
+      </c>
+      <c r="D176" t="s">
+        <v>45</v>
+      </c>
+      <c r="E176" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>457</v>
+      </c>
+      <c r="B177" t="s">
+        <v>458</v>
+      </c>
+      <c r="C177" t="s">
+        <v>459</v>
+      </c>
+      <c r="D177" t="s">
+        <v>45</v>
+      </c>
+      <c r="E177" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>460</v>
+      </c>
+      <c r="B178" t="s">
+        <v>461</v>
+      </c>
+      <c r="C178" t="s">
+        <v>462</v>
+      </c>
+      <c r="D178" t="s">
+        <v>45</v>
+      </c>
+      <c r="E178" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>463</v>
+      </c>
+      <c r="B179" t="s">
+        <v>464</v>
+      </c>
+      <c r="C179" t="s">
+        <v>465</v>
+      </c>
+      <c r="D179" t="s">
+        <v>45</v>
+      </c>
+      <c r="E179" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>466</v>
+      </c>
+      <c r="B180" t="s">
+        <v>467</v>
+      </c>
+      <c r="C180" t="s">
+        <v>468</v>
+      </c>
+      <c r="D180" t="s">
+        <v>45</v>
+      </c>
+      <c r="E180" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="B2:B32"/>

--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosBeltran/Documents/TEC/Octavo Semestre/Taller de investigacion II/itc_face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC0269D-1503-0143-8D2F-CC76DD6F086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2D9B0D-5AD8-EE4C-B22C-28473C220E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15060" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
@@ -747,9 +747,6 @@
     <t>23170256</t>
   </si>
   <si>
-    <t>Angel Gabriel Muñoz Vega</t>
-  </si>
-  <si>
     <t>l23170256@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -810,9 +807,6 @@
     <t>24171087</t>
   </si>
   <si>
-    <t>Jesus Angel Castañeda Melendrez</t>
-  </si>
-  <si>
     <t>l24171087@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -894,9 +888,6 @@
     <t>24170231</t>
   </si>
   <si>
-    <t>Jose Alejandro Nuñez Ortiz</t>
-  </si>
-  <si>
     <t>l24170231@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -939,9 +930,6 @@
     <t>21170216</t>
   </si>
   <si>
-    <t>Jorge Alejandro Nuñez Serrano</t>
-  </si>
-  <si>
     <t>l21170216@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -1029,9 +1017,6 @@
     <t>23170428</t>
   </si>
   <si>
-    <t>Angel Ntanael Castro Ocaña</t>
-  </si>
-  <si>
     <t>l23170428@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -1101,9 +1086,6 @@
     <t>24170232</t>
   </si>
   <si>
-    <t>Jesus Manuel Nuñez Zavala</t>
-  </si>
-  <si>
     <t>l24170232@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -1329,9 +1311,6 @@
     <t>21170969</t>
   </si>
   <si>
-    <t>Daniela Garcia Patiño</t>
-  </si>
-  <si>
     <t>l21170969@culiacan.tecnm.mx</t>
   </si>
   <si>
@@ -1441,6 +1420,27 @@
   </si>
   <si>
     <t>l24170223@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Daniela Garcia Patino</t>
+  </si>
+  <si>
+    <t>Jesus Manuel Nunez Zavala</t>
+  </si>
+  <si>
+    <t>Angel Natanael Castro Ocana</t>
+  </si>
+  <si>
+    <t>Jose Alejandro Nunez Ortiz</t>
+  </si>
+  <si>
+    <t>Jorge Alejandro Nunez Serrano</t>
+  </si>
+  <si>
+    <t>Jesus Angel Castaneda Melendrez</t>
+  </si>
+  <si>
+    <t>Angel Gabriel Munoz Vega</t>
   </si>
 </sst>
 </file>
@@ -1826,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3594,10 +3594,10 @@
         <v>236</v>
       </c>
       <c r="B104" t="s">
+        <v>468</v>
+      </c>
+      <c r="C104" t="s">
         <v>237</v>
-      </c>
-      <c r="C104" t="s">
-        <v>238</v>
       </c>
       <c r="D104" t="s">
         <v>45</v>
@@ -3608,13 +3608,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" t="s">
         <v>239</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>240</v>
-      </c>
-      <c r="C105" t="s">
-        <v>241</v>
       </c>
       <c r="D105" t="s">
         <v>45</v>
@@ -3625,13 +3625,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>241</v>
+      </c>
+      <c r="B106" t="s">
         <v>242</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>243</v>
-      </c>
-      <c r="C106" t="s">
-        <v>244</v>
       </c>
       <c r="D106" t="s">
         <v>45</v>
@@ -3642,13 +3642,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" t="s">
         <v>245</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>246</v>
-      </c>
-      <c r="C107" t="s">
-        <v>247</v>
       </c>
       <c r="D107" t="s">
         <v>45</v>
@@ -3659,13 +3659,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" t="s">
         <v>248</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>249</v>
-      </c>
-      <c r="C108" t="s">
-        <v>250</v>
       </c>
       <c r="D108" t="s">
         <v>45</v>
@@ -3676,13 +3676,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" t="s">
         <v>251</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>252</v>
-      </c>
-      <c r="C109" t="s">
-        <v>253</v>
       </c>
       <c r="D109" t="s">
         <v>45</v>
@@ -3693,13 +3693,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>253</v>
+      </c>
+      <c r="B110" t="s">
         <v>254</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>255</v>
-      </c>
-      <c r="C110" t="s">
-        <v>256</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -3710,30 +3710,30 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>256</v>
+      </c>
+      <c r="B111" t="s">
+        <v>467</v>
+      </c>
+      <c r="C111" t="s">
         <v>257</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" t="s">
         <v>258</v>
-      </c>
-      <c r="C111" t="s">
-        <v>259</v>
-      </c>
-      <c r="D111" t="s">
-        <v>45</v>
-      </c>
-      <c r="E111" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" t="s">
         <v>261</v>
-      </c>
-      <c r="B112" t="s">
-        <v>262</v>
-      </c>
-      <c r="C112" t="s">
-        <v>263</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -3744,13 +3744,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" t="s">
         <v>264</v>
-      </c>
-      <c r="B113" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113" t="s">
-        <v>266</v>
       </c>
       <c r="D113" t="s">
         <v>45</v>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>265</v>
+      </c>
+      <c r="B114" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" t="s">
         <v>267</v>
-      </c>
-      <c r="B114" t="s">
-        <v>268</v>
-      </c>
-      <c r="C114" t="s">
-        <v>269</v>
       </c>
       <c r="D114" t="s">
         <v>45</v>
@@ -3778,13 +3778,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" t="s">
         <v>270</v>
-      </c>
-      <c r="B115" t="s">
-        <v>271</v>
-      </c>
-      <c r="C115" t="s">
-        <v>272</v>
       </c>
       <c r="D115" t="s">
         <v>45</v>
@@ -3795,13 +3795,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>271</v>
+      </c>
+      <c r="B116" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" t="s">
         <v>273</v>
-      </c>
-      <c r="B116" t="s">
-        <v>274</v>
-      </c>
-      <c r="C116" t="s">
-        <v>275</v>
       </c>
       <c r="D116" t="s">
         <v>45</v>
@@ -3812,13 +3812,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" t="s">
+        <v>275</v>
+      </c>
+      <c r="C117" t="s">
         <v>276</v>
-      </c>
-      <c r="B117" t="s">
-        <v>277</v>
-      </c>
-      <c r="C117" t="s">
-        <v>278</v>
       </c>
       <c r="D117" t="s">
         <v>45</v>
@@ -3829,13 +3829,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C118" t="s">
         <v>279</v>
-      </c>
-      <c r="B118" t="s">
-        <v>280</v>
-      </c>
-      <c r="C118" t="s">
-        <v>281</v>
       </c>
       <c r="D118" t="s">
         <v>45</v>
@@ -3846,30 +3846,30 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>280</v>
+      </c>
+      <c r="B119" t="s">
+        <v>281</v>
+      </c>
+      <c r="C119" t="s">
         <v>282</v>
       </c>
-      <c r="B119" t="s">
-        <v>283</v>
-      </c>
-      <c r="C119" t="s">
-        <v>284</v>
-      </c>
       <c r="D119" t="s">
         <v>45</v>
       </c>
       <c r="E119" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>465</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D120" t="s">
         <v>45</v>
@@ -3880,13 +3880,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D121" t="s">
         <v>45</v>
@@ -3897,13 +3897,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B122" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D122" t="s">
         <v>45</v>
@@ -3914,30 +3914,30 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B123" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D123" t="s">
         <v>45</v>
       </c>
       <c r="E123" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B124" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C124" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D124" t="s">
         <v>45</v>
@@ -3948,13 +3948,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B125" t="s">
-        <v>301</v>
+        <v>466</v>
       </c>
       <c r="C125" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D125" t="s">
         <v>45</v>
@@ -3965,13 +3965,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D126" t="s">
         <v>45</v>
@@ -3982,13 +3982,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B127" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D127" t="s">
         <v>45</v>
@@ -3999,13 +3999,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C128" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D128" t="s">
         <v>45</v>
@@ -4016,13 +4016,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B129" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D129" t="s">
         <v>45</v>
@@ -4033,13 +4033,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D130" t="s">
         <v>45</v>
@@ -4050,30 +4050,30 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C131" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D131" t="s">
         <v>45</v>
       </c>
       <c r="E131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B132" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C132" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D132" t="s">
         <v>45</v>
@@ -4084,13 +4084,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B133" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C133" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D133" t="s">
         <v>45</v>
@@ -4101,30 +4101,30 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B134" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D134" t="s">
         <v>45</v>
       </c>
       <c r="E134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B135" t="s">
-        <v>331</v>
+        <v>464</v>
       </c>
       <c r="C135" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D135" t="s">
         <v>45</v>
@@ -4135,13 +4135,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B136" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C136" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D136" t="s">
         <v>45</v>
@@ -4152,13 +4152,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B137" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C137" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D137" t="s">
         <v>45</v>
@@ -4169,13 +4169,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B138" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C138" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D138" t="s">
         <v>45</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B139" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C139" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D139" t="s">
         <v>45</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B140" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C140" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D140" t="s">
         <v>45</v>
@@ -4220,30 +4220,30 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B141" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C141" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D141" t="s">
         <v>45</v>
       </c>
       <c r="E141" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B142" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C142" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D142" t="s">
         <v>45</v>
@@ -4254,13 +4254,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B143" t="s">
-        <v>355</v>
+        <v>463</v>
       </c>
       <c r="C143" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D143" t="s">
         <v>45</v>
@@ -4271,13 +4271,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B144" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C144" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D144" t="s">
         <v>45</v>
@@ -4288,13 +4288,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B145" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C145" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D145" t="s">
         <v>45</v>
@@ -4305,13 +4305,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B146" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C146" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D146" t="s">
         <v>45</v>
@@ -4322,13 +4322,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B147" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C147" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D147" t="s">
         <v>45</v>
@@ -4339,13 +4339,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B148" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C148" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
@@ -4356,13 +4356,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B149" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C149" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D149" t="s">
         <v>45</v>
@@ -4373,30 +4373,30 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B150" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C150" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D150" t="s">
         <v>45</v>
       </c>
       <c r="E150" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B151" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C151" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D151" t="s">
         <v>45</v>
@@ -4407,13 +4407,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B152" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C152" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D152" t="s">
         <v>45</v>
@@ -4424,13 +4424,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B153" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C153" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D153" t="s">
         <v>45</v>
@@ -4441,13 +4441,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B154" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C154" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D154" t="s">
         <v>45</v>
@@ -4458,13 +4458,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B155" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C155" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D155" t="s">
         <v>45</v>
@@ -4475,13 +4475,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B156" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C156" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D156" t="s">
         <v>45</v>
@@ -4492,13 +4492,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B157" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C157" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D157" t="s">
         <v>45</v>
@@ -4509,13 +4509,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B158" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C158" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D158" t="s">
         <v>45</v>
@@ -4526,30 +4526,30 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B159" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C159" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D159" t="s">
         <v>45</v>
       </c>
       <c r="E159" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B160" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C160" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D160" t="s">
         <v>45</v>
@@ -4560,13 +4560,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B161" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C161" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D161" t="s">
         <v>45</v>
@@ -4577,13 +4577,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B162" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C162" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D162" t="s">
         <v>45</v>
@@ -4594,13 +4594,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B163" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C163" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D163" t="s">
         <v>45</v>
@@ -4611,13 +4611,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B164" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C164" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D164" t="s">
         <v>45</v>
@@ -4628,30 +4628,30 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B165" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C165" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D165" t="s">
         <v>45</v>
       </c>
       <c r="E165" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B166" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C166" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D166" t="s">
         <v>45</v>
@@ -4662,13 +4662,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B167" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C167" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D167" t="s">
         <v>45</v>
@@ -4679,13 +4679,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B168" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="C168" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D168" t="s">
         <v>45</v>
@@ -4696,13 +4696,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B169" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C169" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D169" t="s">
         <v>45</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B170" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C170" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D170" t="s">
         <v>45</v>
@@ -4730,13 +4730,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B171" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C171" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D171" t="s">
         <v>45</v>
@@ -4747,13 +4747,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B172" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C172" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D172" t="s">
         <v>45</v>
@@ -4764,47 +4764,47 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B173" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C173" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D173" t="s">
         <v>45</v>
       </c>
       <c r="E173" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B174" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D174" t="s">
         <v>45</v>
       </c>
       <c r="E174" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B175" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C175" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D175" t="s">
         <v>45</v>
@@ -4815,30 +4815,30 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B176" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C176" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D176" t="s">
         <v>45</v>
       </c>
       <c r="E176" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B177" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C177" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D177" t="s">
         <v>45</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B178" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C178" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D178" t="s">
         <v>45</v>
@@ -4866,13 +4866,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B179" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C179" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D179" t="s">
         <v>45</v>
@@ -4883,13 +4883,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B180" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C180" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D180" t="s">
         <v>45</v>

--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosBeltran/Documents/TEC/Octavo Semestre/Taller de investigacion II/itc_face_recognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelaleman/Desktop/itc_face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2D9B0D-5AD8-EE4C-B22C-28473C220E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DC60D2-C80B-564C-AE5F-DCE50B8C5C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15060" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14900" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="473">
   <si>
     <t>nControl</t>
   </si>
@@ -1441,6 +1441,18 @@
   </si>
   <si>
     <t>Angel Gabriel Munoz Vega</t>
+  </si>
+  <si>
+    <t>Beangel Valle Torres</t>
+  </si>
+  <si>
+    <t>l20171453@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Jorge David Ferreiro Torres</t>
+  </si>
+  <si>
+    <t>l21170321@culiacan.tecnm.mx</t>
   </si>
 </sst>
 </file>
@@ -1824,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4898,6 +4910,40 @@
         <v>165</v>
       </c>
     </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>20171453</v>
+      </c>
+      <c r="B181" t="s">
+        <v>469</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D181" t="s">
+        <v>45</v>
+      </c>
+      <c r="E181" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>21170321</v>
+      </c>
+      <c r="B182" t="s">
+        <v>471</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D182" t="s">
+        <v>45</v>
+      </c>
+      <c r="E182" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
     <sortCondition ref="B2:B32"/>
@@ -4906,6 +4952,8 @@
     <hyperlink ref="C40" r:id="rId1" xr:uid="{89560EFF-9C67-EF40-A59E-AC1314EAEE59}"/>
     <hyperlink ref="C85" r:id="rId2" xr:uid="{DBA1C05D-CE4D-B84F-84CF-C62EC3F79F9D}"/>
     <hyperlink ref="C86" r:id="rId3" xr:uid="{61542A5C-EDD3-6A48-9A2D-6C5B31CBAF54}"/>
+    <hyperlink ref="C181" r:id="rId4" xr:uid="{338D83D4-F253-FA41-94C6-51D765ECD445}"/>
+    <hyperlink ref="C182" r:id="rId5" xr:uid="{6F96C8C0-79E4-6048-9920-5DDC3158E0B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos_Investigacion.xlsx
+++ b/Datos_Investigacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelaleman/Desktop/itc_face_recognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosBeltran/Documents/TEC/Octavo Semestre/Taller de investigacion II/itc_face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DC60D2-C80B-564C-AE5F-DCE50B8C5C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847BF0F-F882-A14E-A2B1-76429F292D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14900" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="14900" xr2:uid="{2385BAF8-FA20-D944-A807-663308FAC982}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="481">
   <si>
     <t>nControl</t>
   </si>
@@ -1453,6 +1453,30 @@
   </si>
   <si>
     <t>l21170321@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Edgar Cervantes Lopez</t>
+  </si>
+  <si>
+    <t>edgar.cl@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Departamento de Sistemas y Computacion</t>
+  </si>
+  <si>
+    <t>zuriel.mf@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Zuriel Dathan Mora Felix</t>
+  </si>
+  <si>
+    <t>juan.zt@culiacan.tecnm.mx</t>
+  </si>
+  <si>
+    <t>Juan Zambada Tinoco</t>
+  </si>
+  <si>
+    <t>Departamento de Electrica-Electronica</t>
   </si>
 </sst>
 </file>
@@ -1497,10 +1521,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1836,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE89CA4D-4172-7F4C-AFA2-221F0B1D7831}">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4942,6 +4967,57 @@
       </c>
       <c r="E182" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>1239</v>
+      </c>
+      <c r="B183" t="s">
+        <v>473</v>
+      </c>
+      <c r="C183" t="s">
+        <v>474</v>
+      </c>
+      <c r="D183" t="s">
+        <v>46</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2345</v>
+      </c>
+      <c r="B184" t="s">
+        <v>477</v>
+      </c>
+      <c r="C184" t="s">
+        <v>476</v>
+      </c>
+      <c r="D184" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>3456</v>
+      </c>
+      <c r="B185" t="s">
+        <v>479</v>
+      </c>
+      <c r="C185" t="s">
+        <v>478</v>
+      </c>
+      <c r="D185" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
